--- a/Code/Results/Cases/Case_7_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.965411591198688</v>
+        <v>1.171950081042439</v>
       </c>
       <c r="C2">
-        <v>0.3199687755364948</v>
+        <v>0.08861730483006625</v>
       </c>
       <c r="D2">
-        <v>0.006971955056890522</v>
+        <v>0.08388745182205071</v>
       </c>
       <c r="E2">
-        <v>0.02769379369847158</v>
+        <v>0.05831933137805478</v>
       </c>
       <c r="F2">
-        <v>1.974847529486155</v>
+        <v>0.9229056605191133</v>
       </c>
       <c r="G2">
-        <v>0.0008331518620170175</v>
+        <v>0.0008293185564923027</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05991572074080587</v>
+        <v>0.06787603572789536</v>
       </c>
       <c r="K2">
-        <v>0.6742821485665687</v>
+        <v>0.9304199162912425</v>
       </c>
       <c r="L2">
-        <v>0.2602910822322286</v>
+        <v>0.1913452486315919</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.232204949374164</v>
+        <v>1.086307814935909</v>
       </c>
       <c r="O2">
-        <v>1.406201632628637</v>
+        <v>2.392924739056582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.612796352876558</v>
+        <v>1.027990895461727</v>
       </c>
       <c r="C3">
-        <v>0.2767286042033561</v>
+        <v>0.08572169982807054</v>
       </c>
       <c r="D3">
-        <v>0.006303388953748268</v>
+        <v>0.07552598039992375</v>
       </c>
       <c r="E3">
-        <v>0.02745149447867856</v>
+        <v>0.05606695481377599</v>
       </c>
       <c r="F3">
-        <v>1.876001481462623</v>
+        <v>0.9050744434410731</v>
       </c>
       <c r="G3">
-        <v>0.0008403673446714022</v>
+        <v>0.0008330081955245725</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06072292483387187</v>
+        <v>0.06830850192865157</v>
       </c>
       <c r="K3">
-        <v>0.5894654667661712</v>
+        <v>0.8091641496239674</v>
       </c>
       <c r="L3">
-        <v>0.2346248462597487</v>
+        <v>0.1726872010021836</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.290469022763887</v>
+        <v>1.133563288032041</v>
       </c>
       <c r="O3">
-        <v>1.337112172498507</v>
+        <v>2.372342761944651</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.399686951354624</v>
+        <v>0.9401054071255999</v>
       </c>
       <c r="C4">
-        <v>0.2504229170875192</v>
+        <v>0.08394506531276846</v>
       </c>
       <c r="D4">
-        <v>0.005898159040093276</v>
+        <v>0.07044139994682297</v>
       </c>
       <c r="E4">
-        <v>0.02732639484200661</v>
+        <v>0.05474209963573351</v>
       </c>
       <c r="F4">
-        <v>1.818932448053033</v>
+        <v>0.8954715890566192</v>
       </c>
       <c r="G4">
-        <v>0.0008449306139149032</v>
+        <v>0.0008353532007246716</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06128607890554783</v>
+        <v>0.06864962253168905</v>
       </c>
       <c r="K4">
-        <v>0.5381248007593626</v>
+        <v>0.7349382391051904</v>
       </c>
       <c r="L4">
-        <v>0.2191765569313304</v>
+        <v>0.1613689234895404</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.327938435664556</v>
+        <v>1.163768519315384</v>
       </c>
       <c r="O4">
-        <v>1.297389042075665</v>
+        <v>2.363417755650062</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.313607911878876</v>
+        <v>0.9044049633531586</v>
       </c>
       <c r="C5">
-        <v>0.2397538095557934</v>
+        <v>0.08322121322116516</v>
       </c>
       <c r="D5">
-        <v>0.005734129902705831</v>
+        <v>0.06838108502460472</v>
       </c>
       <c r="E5">
-        <v>0.02728120169857196</v>
+        <v>0.05421635524620072</v>
       </c>
       <c r="F5">
-        <v>1.796526257955861</v>
+        <v>0.8918844577132106</v>
       </c>
       <c r="G5">
-        <v>0.000846824669548242</v>
+        <v>0.0008363291061597097</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06153205576044662</v>
+        <v>0.06880720916508665</v>
       </c>
       <c r="K5">
-        <v>0.5173670830908677</v>
+        <v>0.7047368517183514</v>
       </c>
       <c r="L5">
-        <v>0.2129527553976942</v>
+        <v>0.1567891107921042</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.34361990730315</v>
+        <v>1.176371021502765</v>
       </c>
       <c r="O5">
-        <v>1.281833779804757</v>
+        <v>2.360681156796375</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.299358243809479</v>
+        <v>0.8984834080255837</v>
       </c>
       <c r="C6">
-        <v>0.2379849759476116</v>
+        <v>0.08310102161028965</v>
       </c>
       <c r="D6">
-        <v>0.005706953769365697</v>
+        <v>0.06803965690330926</v>
       </c>
       <c r="E6">
-        <v>0.02727404221933405</v>
+        <v>0.05412989681504676</v>
       </c>
       <c r="F6">
-        <v>1.792855354213771</v>
+        <v>0.8913081658858459</v>
       </c>
       <c r="G6">
-        <v>0.0008471412886216223</v>
+        <v>0.0008364923886742706</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06157388201451219</v>
+        <v>0.06883448613520216</v>
       </c>
       <c r="K6">
-        <v>0.5139295915741897</v>
+        <v>0.6997244339661961</v>
       </c>
       <c r="L6">
-        <v>0.2119234302964372</v>
+        <v>0.1560305361274033</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.346248324699566</v>
+        <v>1.178481231200918</v>
       </c>
       <c r="O6">
-        <v>1.279287736195265</v>
+        <v>2.360280190184852</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.398523076620847</v>
+        <v>0.9396234959905314</v>
       </c>
       <c r="C7">
-        <v>0.2502788381272865</v>
+        <v>0.08393530284956086</v>
       </c>
       <c r="D7">
-        <v>0.005895942684064792</v>
+        <v>0.07041356741207494</v>
       </c>
       <c r="E7">
-        <v>0.0273257621359031</v>
+        <v>0.05473495259437833</v>
       </c>
       <c r="F7">
-        <v>1.818626906726465</v>
+        <v>0.8954219071224827</v>
       </c>
       <c r="G7">
-        <v>0.0008449560168857452</v>
+        <v>0.0008353662795487478</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06128933010746884</v>
+        <v>0.06865167313461029</v>
       </c>
       <c r="K7">
-        <v>0.5378442178938911</v>
+        <v>0.7345307586990089</v>
       </c>
       <c r="L7">
-        <v>0.219092339534896</v>
+        <v>0.1613070298429449</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.328148269315825</v>
+        <v>1.163937299464791</v>
       </c>
       <c r="O7">
-        <v>1.297176757180246</v>
+        <v>2.363377245813382</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.843068567520561</v>
+        <v>1.122199457866316</v>
       </c>
       <c r="C8">
-        <v>0.3050022453757322</v>
+        <v>0.08761852123461011</v>
       </c>
       <c r="D8">
-        <v>0.006740198393750063</v>
+        <v>0.08099371243276465</v>
       </c>
       <c r="E8">
-        <v>0.02760523123472947</v>
+        <v>0.0575303614934537</v>
       </c>
       <c r="F8">
-        <v>1.939975325028911</v>
+        <v>0.9164706282884225</v>
       </c>
       <c r="G8">
-        <v>0.0008356128296372306</v>
+        <v>0.000830574413066966</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0601797217661364</v>
+        <v>0.06800919819619367</v>
       </c>
       <c r="K8">
-        <v>0.6448710150993691</v>
+        <v>0.8885575980417286</v>
       </c>
       <c r="L8">
-        <v>0.2513726662823785</v>
+        <v>0.1848819924387186</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.251933950677945</v>
+        <v>1.102351004918394</v>
       </c>
       <c r="O8">
-        <v>1.381790720053388</v>
+        <v>2.385037154242667</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.746215743395737</v>
+        <v>1.484912902304075</v>
       </c>
       <c r="C9">
-        <v>0.4147802461512242</v>
+        <v>0.0948606152758984</v>
       </c>
       <c r="D9">
-        <v>0.008449058075701288</v>
+        <v>0.1021689097158003</v>
       </c>
       <c r="E9">
-        <v>0.02834934922264321</v>
+        <v>0.06349573803805697</v>
       </c>
       <c r="F9">
-        <v>2.209689858272654</v>
+        <v>0.9690071713092365</v>
       </c>
       <c r="G9">
-        <v>0.0008182938530423465</v>
+        <v>0.0008217948767368256</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05856368038660165</v>
+        <v>0.06736938871658182</v>
       </c>
       <c r="K9">
-        <v>0.8616552971769664</v>
+        <v>1.192907726893935</v>
       </c>
       <c r="L9">
-        <v>0.3174710131716552</v>
+        <v>0.2323122177995316</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.116603197426983</v>
+        <v>0.9912881973196521</v>
       </c>
       <c r="O9">
-        <v>1.571400574626253</v>
+        <v>2.458543080360926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.435721623905124</v>
+        <v>1.755259660704922</v>
       </c>
       <c r="C10">
-        <v>0.4977563711271671</v>
+        <v>0.1002074722307853</v>
       </c>
       <c r="D10">
-        <v>0.009755564665860916</v>
+        <v>0.1180406342764542</v>
       </c>
       <c r="E10">
-        <v>0.02902825449946889</v>
+        <v>0.06820663704283447</v>
       </c>
       <c r="F10">
-        <v>2.431807807913657</v>
+        <v>1.015329172604154</v>
       </c>
       <c r="G10">
-        <v>0.0008061022848607536</v>
+        <v>0.0008157004769698946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05775435517869099</v>
+        <v>0.06730716970100303</v>
       </c>
       <c r="K10">
-        <v>1.026763059474121</v>
+        <v>1.418696012091573</v>
       </c>
       <c r="L10">
-        <v>0.3682458683259853</v>
+        <v>0.2680496544032991</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.026816239283825</v>
+        <v>0.9159902327645426</v>
       </c>
       <c r="O10">
-        <v>1.728628815572421</v>
+        <v>2.533780782747868</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.756742156225698</v>
+        <v>1.879325442399619</v>
       </c>
       <c r="C11">
-        <v>0.5362151358721974</v>
+        <v>0.1026490783725933</v>
       </c>
       <c r="D11">
-        <v>0.01036595976723831</v>
+        <v>0.1253420287050488</v>
       </c>
       <c r="E11">
-        <v>0.02936897877274092</v>
+        <v>0.07042884614435252</v>
       </c>
       <c r="F11">
-        <v>2.539209804403555</v>
+        <v>1.038282090254853</v>
       </c>
       <c r="G11">
-        <v>0.0008006522276781566</v>
+        <v>0.0008130005256472651</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05747738559043825</v>
+        <v>0.0673744506961782</v>
       </c>
       <c r="K11">
-        <v>1.103549988719763</v>
+        <v>1.522072418807198</v>
       </c>
       <c r="L11">
-        <v>0.3919519436213221</v>
+        <v>0.2845386040890361</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9883224586094883</v>
+        <v>0.883193263848109</v>
       </c>
       <c r="O11">
-        <v>1.804920973361519</v>
+        <v>2.573166105489889</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.879521952549794</v>
+        <v>1.926482585142622</v>
       </c>
       <c r="C12">
-        <v>0.5509002987000144</v>
+        <v>0.1035752975818127</v>
       </c>
       <c r="D12">
-        <v>0.01059989791088611</v>
+        <v>0.128119653327829</v>
       </c>
       <c r="E12">
-        <v>0.02950288246821131</v>
+        <v>0.07128241258524071</v>
       </c>
       <c r="F12">
-        <v>2.580902645017304</v>
+        <v>1.047262197069955</v>
       </c>
       <c r="G12">
-        <v>0.0007986004344724922</v>
+        <v>0.0008119881310006975</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05738647661691232</v>
+        <v>0.067414297634663</v>
       </c>
       <c r="K12">
-        <v>1.13290661902046</v>
+        <v>1.561330014363676</v>
       </c>
       <c r="L12">
-        <v>0.4010280988116648</v>
+        <v>0.2908191580496151</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9741086584867773</v>
+        <v>0.8709915488378304</v>
       </c>
       <c r="O12">
-        <v>1.834578475747648</v>
+        <v>2.588870897916507</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.8530223327665</v>
+        <v>1.916318279447694</v>
       </c>
       <c r="C13">
-        <v>0.5477318455278919</v>
+        <v>0.1033757418878238</v>
       </c>
       <c r="D13">
-        <v>0.01054938232955038</v>
+        <v>0.1275208577465605</v>
       </c>
       <c r="E13">
-        <v>0.0294738219137809</v>
+        <v>0.07109803401959525</v>
       </c>
       <c r="F13">
-        <v>2.571876050462038</v>
+        <v>1.045315049462943</v>
       </c>
       <c r="G13">
-        <v>0.0007990418202648402</v>
+        <v>0.0008122057292553414</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05740541935336552</v>
+        <v>0.06740506645376243</v>
       </c>
       <c r="K13">
-        <v>1.126571085608134</v>
+        <v>1.552869981730197</v>
       </c>
       <c r="L13">
-        <v>0.3990687754151878</v>
+        <v>0.2894648495107504</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9771532848543956</v>
+        <v>0.8736095817276732</v>
       </c>
       <c r="O13">
-        <v>1.828155677757579</v>
+        <v>2.5854526285178</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.766817982044756</v>
+        <v>1.883201437917478</v>
       </c>
       <c r="C14">
-        <v>0.5374207368483894</v>
+        <v>0.1027252443868321</v>
       </c>
       <c r="D14">
-        <v>0.01038514694585402</v>
+        <v>0.1255702838200392</v>
       </c>
       <c r="E14">
-        <v>0.02937989553846698</v>
+        <v>0.07049882376778882</v>
       </c>
       <c r="F14">
-        <v>2.542618758048746</v>
+        <v>1.039015003830841</v>
       </c>
       <c r="G14">
-        <v>0.0008004831951086529</v>
+        <v>0.0008129170368767099</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05746962115816245</v>
+        <v>0.06737743723438427</v>
       </c>
       <c r="K14">
-        <v>1.105959352159317</v>
+        <v>1.525299842535247</v>
       </c>
       <c r="L14">
-        <v>0.3926965851258899</v>
+        <v>0.2850545574306693</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9871456536847418</v>
+        <v>0.8821850069315085</v>
       </c>
       <c r="O14">
-        <v>1.807345035745399</v>
+        <v>2.574442017558994</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.714178702721824</v>
+        <v>1.862939978810289</v>
       </c>
       <c r="C15">
-        <v>0.531121336778881</v>
+        <v>0.102327018276533</v>
       </c>
       <c r="D15">
-        <v>0.01028492764441324</v>
+        <v>0.124377193318054</v>
       </c>
       <c r="E15">
-        <v>0.0293230075317279</v>
+        <v>0.07013338205121755</v>
       </c>
       <c r="F15">
-        <v>2.52483431436373</v>
+        <v>1.035194144126592</v>
       </c>
       <c r="G15">
-        <v>0.0008013675892283301</v>
+        <v>0.0008133540259185577</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05751079342638477</v>
+        <v>0.06736240401429328</v>
       </c>
       <c r="K15">
-        <v>1.093371605742831</v>
+        <v>1.508427301321262</v>
       </c>
       <c r="L15">
-        <v>0.3888067194647249</v>
+        <v>0.282357984621612</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9933143236199697</v>
+        <v>0.8874663215055021</v>
       </c>
       <c r="O15">
-        <v>1.794700421292404</v>
+        <v>2.567802131807525</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.414903400734715</v>
+        <v>1.747175179728657</v>
       </c>
       <c r="C16">
-        <v>0.4952589305086406</v>
+        <v>0.1000481195490366</v>
       </c>
       <c r="D16">
-        <v>0.009716036938799633</v>
+        <v>0.1175651952859056</v>
       </c>
       <c r="E16">
-        <v>0.02900665340337127</v>
+        <v>0.06806306091564807</v>
       </c>
       <c r="F16">
-        <v>2.424925733817162</v>
+        <v>1.013868494158885</v>
       </c>
       <c r="G16">
-        <v>0.0008064602421835918</v>
+        <v>0.000815878349126598</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05777436233656985</v>
+        <v>0.06730474860433233</v>
       </c>
       <c r="K16">
-        <v>1.021781760990834</v>
+        <v>1.411954801773248</v>
       </c>
       <c r="L16">
-        <v>0.3667098338273007</v>
+        <v>0.2669769971821694</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.029381269614483</v>
+        <v>0.9181636010317709</v>
       </c>
       <c r="O16">
-        <v>1.723745671301245</v>
+        <v>2.531314753834238</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.233300012583356</v>
+        <v>1.676448788674264</v>
       </c>
       <c r="C17">
-        <v>0.4734539916691176</v>
+        <v>0.09865267429095326</v>
       </c>
       <c r="D17">
-        <v>0.0093714773686564</v>
+        <v>0.1134078022206495</v>
       </c>
       <c r="E17">
-        <v>0.02882094667831936</v>
+        <v>0.0668137380687881</v>
       </c>
       <c r="F17">
-        <v>2.365336795500326</v>
+        <v>1.001279979526217</v>
       </c>
       <c r="G17">
-        <v>0.0008096077897603838</v>
+        <v>0.0008174452138154696</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.057959994735306</v>
+        <v>0.06729429232514406</v>
       </c>
       <c r="K17">
-        <v>0.978319198530798</v>
+        <v>1.352952979614258</v>
       </c>
       <c r="L17">
-        <v>0.3533178599635676</v>
+        <v>0.2576028514260287</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.052126138812284</v>
+        <v>0.9373741953284389</v>
       </c>
       <c r="O17">
-        <v>1.6814938424003</v>
+        <v>2.51028589142291</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.129528984552849</v>
+        <v>1.635869545781674</v>
       </c>
       <c r="C18">
-        <v>0.4609781613949906</v>
+        <v>0.09785090643597982</v>
       </c>
       <c r="D18">
-        <v>0.009174774305330757</v>
+        <v>0.111024161684</v>
       </c>
       <c r="E18">
-        <v>0.02871711511762243</v>
+        <v>0.06610257220850002</v>
       </c>
       <c r="F18">
-        <v>2.331654304280519</v>
+        <v>0.9942152926902992</v>
       </c>
       <c r="G18">
-        <v>0.0008114273231339209</v>
+        <v>0.0008183532746604457</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05807529294920499</v>
+        <v>0.06729723542336785</v>
       </c>
       <c r="K18">
-        <v>0.9534761909775824</v>
+        <v>1.319078205553808</v>
       </c>
       <c r="L18">
-        <v>0.3456716401107371</v>
+        <v>0.2522327052286215</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.065428004002733</v>
+        <v>0.9485601788195375</v>
       </c>
       <c r="O18">
-        <v>1.657635132464094</v>
+        <v>2.498673177826333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.094506571391037</v>
+        <v>1.622146811945129</v>
       </c>
       <c r="C19">
-        <v>0.4567648093835714</v>
+        <v>0.0975795798243837</v>
       </c>
       <c r="D19">
-        <v>0.009108414310425417</v>
+        <v>0.1102183729846757</v>
       </c>
       <c r="E19">
-        <v>0.02868246325466828</v>
+        <v>0.06586303670301419</v>
       </c>
       <c r="F19">
-        <v>2.3203484897127</v>
+        <v>0.9918529949268304</v>
       </c>
       <c r="G19">
-        <v>0.0008120450080388878</v>
+        <v>0.0008186619151920941</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05811577077865593</v>
+        <v>0.06729975193967519</v>
       </c>
       <c r="K19">
-        <v>0.9450904010628562</v>
+        <v>1.307618893906636</v>
       </c>
       <c r="L19">
-        <v>0.3430921270478962</v>
+        <v>0.2504180838520824</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.069968791477621</v>
+        <v>0.9523707687263201</v>
       </c>
       <c r="O19">
-        <v>1.649630796499679</v>
+        <v>2.494822760500995</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.252560284368144</v>
+        <v>1.683967168398965</v>
       </c>
       <c r="C20">
-        <v>0.4757682229773081</v>
+        <v>0.09880113120959777</v>
       </c>
       <c r="D20">
-        <v>0.00940800001462172</v>
+        <v>0.1138495716433283</v>
       </c>
       <c r="E20">
-        <v>0.0288404048185793</v>
+        <v>0.06694595878456155</v>
       </c>
       <c r="F20">
-        <v>2.371618180466058</v>
+        <v>1.002601718214834</v>
       </c>
       <c r="G20">
-        <v>0.0008092717935233345</v>
+        <v>0.0008172777131702263</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05793934535806144</v>
+        <v>0.06729447397306387</v>
       </c>
       <c r="K20">
-        <v>0.9829295077662721</v>
+        <v>1.359227347751869</v>
       </c>
       <c r="L20">
-        <v>0.3547375312125496</v>
+        <v>0.2585984856280135</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.049682007241785</v>
+        <v>0.9353150027699666</v>
       </c>
       <c r="O20">
-        <v>1.685945165674752</v>
+        <v>2.512474168081923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.792103935949683</v>
+        <v>1.892923708422757</v>
       </c>
       <c r="C21">
-        <v>0.54044589344889</v>
+        <v>0.1029162643522454</v>
       </c>
       <c r="D21">
-        <v>0.01043330677687848</v>
+        <v>0.1261428599954684</v>
       </c>
       <c r="E21">
-        <v>0.02940734908681719</v>
+        <v>0.07067449333545994</v>
       </c>
       <c r="F21">
-        <v>2.551183680184423</v>
+        <v>1.04085750635366</v>
       </c>
       <c r="G21">
-        <v>0.0008000595170591876</v>
+        <v>0.000812707839967057</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05745037699418276</v>
+        <v>0.06738515746284435</v>
       </c>
       <c r="K21">
-        <v>1.112005622279199</v>
+        <v>1.533394712442544</v>
       </c>
       <c r="L21">
-        <v>0.3945654606222178</v>
+        <v>0.2863489485904864</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9842005895146571</v>
+        <v>0.8796602168403691</v>
       </c>
       <c r="O21">
-        <v>1.813436105206179</v>
+        <v>2.577654246354768</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.151902515299753</v>
+        <v>2.030525910443771</v>
       </c>
       <c r="C22">
-        <v>0.5834362018292154</v>
+        <v>0.1056154359271986</v>
       </c>
       <c r="D22">
-        <v>0.01111997430034251</v>
+        <v>0.1342520628003143</v>
       </c>
       <c r="E22">
-        <v>0.02980647697625649</v>
+        <v>0.07318196907802133</v>
       </c>
       <c r="F22">
-        <v>2.674556075806322</v>
+        <v>1.067549662047512</v>
       </c>
       <c r="G22">
-        <v>0.0007941078949244646</v>
+        <v>0.0008097793578033144</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05721272247826903</v>
+        <v>0.06752849690144558</v>
       </c>
       <c r="K22">
-        <v>1.19801167160999</v>
+        <v>1.647879366272662</v>
       </c>
       <c r="L22">
-        <v>0.4211797828073003</v>
+        <v>0.3047001492523833</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9435339680645072</v>
+        <v>0.8445602835754826</v>
       </c>
       <c r="O22">
-        <v>1.901275974410225</v>
+        <v>2.624885264415099</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.959157892440999</v>
+        <v>1.956983063578321</v>
       </c>
       <c r="C23">
-        <v>0.5604186729736682</v>
+        <v>0.1041738442104716</v>
       </c>
       <c r="D23">
-        <v>0.01075179064030252</v>
+        <v>0.1299168142219145</v>
       </c>
       <c r="E23">
-        <v>0.02959073289358116</v>
+        <v>0.07183698212273626</v>
       </c>
       <c r="F23">
-        <v>2.60812073387406</v>
+        <v>1.053142725557024</v>
       </c>
       <c r="G23">
-        <v>0.0007972786968814717</v>
+        <v>0.0008113371558472596</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05733175956156344</v>
+        <v>0.06744408465218754</v>
       </c>
       <c r="K23">
-        <v>1.151944313998413</v>
+        <v>1.58671123286021</v>
       </c>
       <c r="L23">
-        <v>0.4069175332403461</v>
+        <v>0.2948850077744822</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9650346922556992</v>
+        <v>0.8631743355981065</v>
       </c>
       <c r="O23">
-        <v>1.853951456704877</v>
+        <v>2.599236466538713</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.243850748765055</v>
+        <v>1.680567854092317</v>
       </c>
       <c r="C24">
-        <v>0.4747217731674596</v>
+        <v>0.09873401232620438</v>
       </c>
       <c r="D24">
-        <v>0.009391483836200365</v>
+        <v>0.1136498275203479</v>
       </c>
       <c r="E24">
-        <v>0.02883159867734264</v>
+        <v>0.06688615977672185</v>
       </c>
       <c r="F24">
-        <v>2.368776580247143</v>
+        <v>1.002003623825701</v>
       </c>
       <c r="G24">
-        <v>0.0008094236662509765</v>
+        <v>0.0008173534176176894</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05794865429410834</v>
+        <v>0.06729436400540578</v>
       </c>
       <c r="K24">
-        <v>0.9808447406124401</v>
+        <v>1.356390563312999</v>
       </c>
       <c r="L24">
-        <v>0.3540955336126927</v>
+        <v>0.2581482999195828</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.05078629847781</v>
+        <v>0.9362455234327873</v>
       </c>
       <c r="O24">
-        <v>1.683931381560939</v>
+        <v>2.511483365902365</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.497864055001003</v>
+        <v>1.386187836066</v>
       </c>
       <c r="C25">
-        <v>0.3847387795798056</v>
+        <v>0.09289796115655236</v>
       </c>
       <c r="D25">
-        <v>0.007979305716776963</v>
+        <v>0.09638932923526511</v>
       </c>
       <c r="E25">
-        <v>0.02812581836710049</v>
+        <v>0.06182684591894727</v>
       </c>
       <c r="F25">
-        <v>2.132877170634742</v>
+        <v>0.9535035530876499</v>
       </c>
       <c r="G25">
-        <v>0.0008228794393658092</v>
+        <v>0.000824105935428825</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05893734456106614</v>
+        <v>0.06747311462556738</v>
       </c>
       <c r="K25">
-        <v>0.8021116242930617</v>
+        <v>1.110248974674107</v>
       </c>
       <c r="L25">
-        <v>0.2992407467836387</v>
+        <v>0.219336794281503</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.151601556427977</v>
+        <v>1.020256364616579</v>
       </c>
       <c r="O25">
-        <v>1.517231242673773</v>
+        <v>2.435105015866952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.171950081042439</v>
+        <v>1.00554791402007</v>
       </c>
       <c r="C2">
-        <v>0.08861730483006625</v>
+        <v>0.09605012554472836</v>
       </c>
       <c r="D2">
-        <v>0.08388745182205071</v>
+        <v>0.120530407818336</v>
       </c>
       <c r="E2">
-        <v>0.05831933137805478</v>
+        <v>0.06848786306645138</v>
       </c>
       <c r="F2">
-        <v>0.9229056605191133</v>
+        <v>0.6225692806167729</v>
       </c>
       <c r="G2">
-        <v>0.0008293185564923027</v>
+        <v>0.3700226683308045</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002997180605572525</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06787603572789536</v>
+        <v>0.3363991324000182</v>
       </c>
       <c r="K2">
-        <v>0.9304199162912425</v>
+        <v>0.3550909971424225</v>
       </c>
       <c r="L2">
-        <v>0.1913452486315919</v>
+        <v>0.06739150513007175</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8566386985437191</v>
       </c>
       <c r="N2">
-        <v>1.086307814935909</v>
+        <v>0.222710430307302</v>
       </c>
       <c r="O2">
-        <v>2.392924739056582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8779049525024369</v>
+      </c>
+      <c r="Q2">
+        <v>1.43568722955807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.027990895461727</v>
+        <v>0.8767278863459467</v>
       </c>
       <c r="C3">
-        <v>0.08572169982807054</v>
+        <v>0.09174069245081995</v>
       </c>
       <c r="D3">
-        <v>0.07552598039992375</v>
+        <v>0.1090761916029308</v>
       </c>
       <c r="E3">
-        <v>0.05606695481377599</v>
+        <v>0.06443016752126951</v>
       </c>
       <c r="F3">
-        <v>0.9050744434410731</v>
+        <v>0.6077115485660869</v>
       </c>
       <c r="G3">
-        <v>0.0008330081955245725</v>
+        <v>0.3632125183518937</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004415848544242762</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06830850192865157</v>
+        <v>0.3373153986284905</v>
       </c>
       <c r="K3">
-        <v>0.8091641496239674</v>
+        <v>0.3573677688787953</v>
       </c>
       <c r="L3">
-        <v>0.1726872010021836</v>
+        <v>0.0650621398790534</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7467690533886184</v>
       </c>
       <c r="N3">
-        <v>1.133563288032041</v>
+        <v>0.1995330825038195</v>
       </c>
       <c r="O3">
-        <v>2.372342761944651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9045707350263896</v>
+      </c>
+      <c r="Q3">
+        <v>1.422898952358096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9401054071255999</v>
+        <v>0.797589237059384</v>
       </c>
       <c r="C4">
-        <v>0.08394506531276846</v>
+        <v>0.08907822807348964</v>
       </c>
       <c r="D4">
-        <v>0.07044139994682297</v>
+        <v>0.1020663667713251</v>
       </c>
       <c r="E4">
-        <v>0.05474209963573351</v>
+        <v>0.06193765381459926</v>
       </c>
       <c r="F4">
-        <v>0.8954715890566192</v>
+        <v>0.5992163852225403</v>
       </c>
       <c r="G4">
-        <v>0.0008353532007246716</v>
+        <v>0.3595243754905866</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005462786747278459</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06864962253168905</v>
+        <v>0.338200884722518</v>
       </c>
       <c r="K4">
-        <v>0.7349382391051904</v>
+        <v>0.3591615240691475</v>
       </c>
       <c r="L4">
-        <v>0.1613689234895404</v>
+        <v>0.06361120765610906</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6791990040122329</v>
       </c>
       <c r="N4">
-        <v>1.163768519315384</v>
+        <v>0.1852934734081373</v>
       </c>
       <c r="O4">
-        <v>2.363417755650062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9216308334261356</v>
+      </c>
+      <c r="Q4">
+        <v>1.416761510257217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9044049633531586</v>
+        <v>0.7653247581349092</v>
       </c>
       <c r="C5">
-        <v>0.08322121322116516</v>
+        <v>0.08798892660165336</v>
       </c>
       <c r="D5">
-        <v>0.06838108502460472</v>
+        <v>0.09921516697933441</v>
       </c>
       <c r="E5">
-        <v>0.05421635524620072</v>
+        <v>0.06092142850258853</v>
       </c>
       <c r="F5">
-        <v>0.8918844577132106</v>
+        <v>0.5959074974262819</v>
       </c>
       <c r="G5">
-        <v>0.0008363291061597097</v>
+        <v>0.3581411921576318</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005931969277031546</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06880720916508665</v>
+        <v>0.338641078365626</v>
       </c>
       <c r="K5">
-        <v>0.7047368517183514</v>
+        <v>0.3599895031841385</v>
       </c>
       <c r="L5">
-        <v>0.1567891107921042</v>
+        <v>0.06301450644971851</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6516326829148795</v>
       </c>
       <c r="N5">
-        <v>1.176371021502765</v>
+        <v>0.1794876322058272</v>
       </c>
       <c r="O5">
-        <v>2.360681156796375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9287526667425752</v>
+      </c>
+      <c r="Q5">
+        <v>1.414678654659767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8984834080255837</v>
+        <v>0.75996625442869</v>
       </c>
       <c r="C6">
-        <v>0.08310102161028965</v>
+        <v>0.08780778243188081</v>
       </c>
       <c r="D6">
-        <v>0.06803965690330926</v>
+        <v>0.09874203845323848</v>
       </c>
       <c r="E6">
-        <v>0.05412989681504676</v>
+        <v>0.06075264779999046</v>
       </c>
       <c r="F6">
-        <v>0.8913081658858459</v>
+        <v>0.5953671593179521</v>
       </c>
       <c r="G6">
-        <v>0.0008364923886742706</v>
+        <v>0.3579186267778454</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006012398190668927</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06883448613520216</v>
+        <v>0.3387189121542136</v>
       </c>
       <c r="K6">
-        <v>0.6997244339661961</v>
+        <v>0.3601327755542947</v>
       </c>
       <c r="L6">
-        <v>0.1560305361274033</v>
+        <v>0.06291508981280813</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6470533499692408</v>
       </c>
       <c r="N6">
-        <v>1.178481231200918</v>
+        <v>0.1785233644280453</v>
       </c>
       <c r="O6">
-        <v>2.360280190184852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9299454031603069</v>
+      </c>
+      <c r="Q6">
+        <v>1.414357686608554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9396234959905314</v>
+        <v>0.79715417235019</v>
       </c>
       <c r="C7">
-        <v>0.08393530284956086</v>
+        <v>0.08906355512643671</v>
       </c>
       <c r="D7">
-        <v>0.07041356741207494</v>
+        <v>0.1020278933682448</v>
       </c>
       <c r="E7">
-        <v>0.05473495259437833</v>
+        <v>0.06192395099767189</v>
       </c>
       <c r="F7">
-        <v>0.8954219071224827</v>
+        <v>0.5991711473429788</v>
       </c>
       <c r="G7">
-        <v>0.0008353662795487478</v>
+        <v>0.359505242021072</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005468944220447691</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06865167313461029</v>
+        <v>0.3382065024249314</v>
       </c>
       <c r="K7">
-        <v>0.7345307586990089</v>
+        <v>0.3591723009636709</v>
       </c>
       <c r="L7">
-        <v>0.1613070298429449</v>
+        <v>0.06360318263977049</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.678827364741565</v>
       </c>
       <c r="N7">
-        <v>1.163937299464791</v>
+        <v>0.1852151874746042</v>
       </c>
       <c r="O7">
-        <v>2.363377245813382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9217261978348539</v>
+      </c>
+      <c r="Q7">
+        <v>1.416731743623757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.122199457866316</v>
+        <v>0.9611370246359172</v>
       </c>
       <c r="C8">
-        <v>0.08761852123461011</v>
+        <v>0.09456752982079308</v>
       </c>
       <c r="D8">
-        <v>0.08099371243276465</v>
+        <v>0.1165759163885838</v>
       </c>
       <c r="E8">
-        <v>0.0575303614934537</v>
+        <v>0.06708884602408283</v>
       </c>
       <c r="F8">
-        <v>0.9164706282884225</v>
+        <v>0.6173131151601297</v>
       </c>
       <c r="G8">
-        <v>0.000830574413066966</v>
+        <v>0.3675695125092773</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003448812500681186</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06800919819619367</v>
+        <v>0.3366469130751639</v>
       </c>
       <c r="K8">
-        <v>0.8885575980417286</v>
+        <v>0.3557923347622278</v>
       </c>
       <c r="L8">
-        <v>0.1848819924387186</v>
+        <v>0.06659249283913304</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8187762528957023</v>
       </c>
       <c r="N8">
-        <v>1.102351004918394</v>
+        <v>0.2147200994000258</v>
       </c>
       <c r="O8">
-        <v>2.385037154242667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8869547908126592</v>
+      </c>
+      <c r="Q8">
+        <v>1.430914018037939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.484912902304075</v>
+        <v>1.282582078083237</v>
       </c>
       <c r="C9">
-        <v>0.0948606152758984</v>
+        <v>0.1052398899289457</v>
       </c>
       <c r="D9">
-        <v>0.1021689097158003</v>
+        <v>0.1453106763451331</v>
       </c>
       <c r="E9">
-        <v>0.06349573803805697</v>
+        <v>0.07722024195215837</v>
       </c>
       <c r="F9">
-        <v>0.9690071713092365</v>
+        <v>0.6580976372363025</v>
       </c>
       <c r="G9">
-        <v>0.0008217948767368256</v>
+        <v>0.3874993791203067</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0009603112329445995</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06736938871658182</v>
+        <v>0.3362372420581252</v>
       </c>
       <c r="K9">
-        <v>1.192907726893935</v>
+        <v>0.3524226020962509</v>
       </c>
       <c r="L9">
-        <v>0.2323122177995316</v>
+        <v>0.07230128745731434</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.092523014045383</v>
       </c>
       <c r="N9">
-        <v>0.9912881973196521</v>
+        <v>0.2725568124382676</v>
       </c>
       <c r="O9">
-        <v>2.458543080360926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.824363819829955</v>
+      </c>
+      <c r="Q9">
+        <v>1.472939382982801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.755259660704922</v>
+        <v>1.511956548628831</v>
       </c>
       <c r="C10">
-        <v>0.1002074722307853</v>
+        <v>0.1138686506250295</v>
       </c>
       <c r="D10">
-        <v>0.1180406342764542</v>
+        <v>0.1641036679549188</v>
       </c>
       <c r="E10">
-        <v>0.06820663704283447</v>
+        <v>0.08222408132740711</v>
       </c>
       <c r="F10">
-        <v>1.015329172604154</v>
+        <v>0.684616151273616</v>
       </c>
       <c r="G10">
-        <v>0.0008157004769698946</v>
+        <v>0.4007128754942713</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0003547538943635686</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06730716970100303</v>
+        <v>0.3355636186585755</v>
       </c>
       <c r="K10">
-        <v>1.418696012091573</v>
+        <v>0.3490601640031237</v>
       </c>
       <c r="L10">
-        <v>0.2680496544032991</v>
+        <v>0.07432894268753998</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.291063984486527</v>
       </c>
       <c r="N10">
-        <v>0.9159902327645426</v>
+        <v>0.3056702275794265</v>
       </c>
       <c r="O10">
-        <v>2.533780782747868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7833881155708156</v>
+      </c>
+      <c r="Q10">
+        <v>1.499967236410015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.879325442399619</v>
+        <v>1.554485365953639</v>
       </c>
       <c r="C11">
-        <v>0.1026490783725933</v>
+        <v>0.1257067482176026</v>
       </c>
       <c r="D11">
-        <v>0.1253420287050488</v>
+        <v>0.1515328832258405</v>
       </c>
       <c r="E11">
-        <v>0.07042884614435252</v>
+        <v>0.06527636241810519</v>
       </c>
       <c r="F11">
-        <v>1.038282090254853</v>
+        <v>0.6379570661619525</v>
       </c>
       <c r="G11">
-        <v>0.0008130005256472651</v>
+        <v>0.3711973891075786</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01891337586766184</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0673744506961782</v>
+        <v>0.3175099480124643</v>
       </c>
       <c r="K11">
-        <v>1.522072418807198</v>
+        <v>0.3222941975836591</v>
       </c>
       <c r="L11">
-        <v>0.2845386040890361</v>
+        <v>0.06180042420613141</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.359915328695365</v>
       </c>
       <c r="N11">
-        <v>0.883193263848109</v>
+        <v>0.2438178831045263</v>
       </c>
       <c r="O11">
-        <v>2.573166105489889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7804736160923795</v>
+      </c>
+      <c r="Q11">
+        <v>1.399748266584169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.926482585142622</v>
+        <v>1.540804860547183</v>
       </c>
       <c r="C12">
-        <v>0.1035752975818127</v>
+        <v>0.1346425578286556</v>
       </c>
       <c r="D12">
-        <v>0.128119653327829</v>
+        <v>0.1373935328131211</v>
       </c>
       <c r="E12">
-        <v>0.07128241258524071</v>
+        <v>0.05274678186303383</v>
       </c>
       <c r="F12">
-        <v>1.047262197069955</v>
+        <v>0.5936304217233257</v>
       </c>
       <c r="G12">
-        <v>0.0008119881310006975</v>
+        <v>0.3438765450298007</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05762354181423746</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.067414297634663</v>
+        <v>0.3024618384352991</v>
       </c>
       <c r="K12">
-        <v>1.561330014363676</v>
+        <v>0.3010502601971474</v>
       </c>
       <c r="L12">
-        <v>0.2908191580496151</v>
+        <v>0.05714561862044654</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.375587936681342</v>
       </c>
       <c r="N12">
-        <v>0.8709915488378304</v>
+        <v>0.1912750264083627</v>
       </c>
       <c r="O12">
-        <v>2.588870897916507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7898907255662451</v>
+      </c>
+      <c r="Q12">
+        <v>1.310367021703073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.916318279447694</v>
+        <v>1.483153123194256</v>
       </c>
       <c r="C13">
-        <v>0.1033757418878238</v>
+        <v>0.1417418818009679</v>
       </c>
       <c r="D13">
-        <v>0.1275208577465605</v>
+        <v>0.1213062455077534</v>
       </c>
       <c r="E13">
-        <v>0.07109803401959525</v>
+        <v>0.04290348354940132</v>
       </c>
       <c r="F13">
-        <v>1.045315049462943</v>
+        <v>0.548447930086077</v>
       </c>
       <c r="G13">
-        <v>0.0008122057292553414</v>
+        <v>0.3165473727347674</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1134556688474362</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06740506645376243</v>
+        <v>0.2887659602933326</v>
       </c>
       <c r="K13">
-        <v>1.552869981730197</v>
+        <v>0.2827015737502592</v>
       </c>
       <c r="L13">
-        <v>0.2894648495107504</v>
+        <v>0.05814061740655596</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.351087062623009</v>
       </c>
       <c r="N13">
-        <v>0.8736095817276732</v>
+        <v>0.1431073512103467</v>
       </c>
       <c r="O13">
-        <v>2.5854526285178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.8085170221155309</v>
+      </c>
+      <c r="Q13">
+        <v>1.223718255805153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.883201437917478</v>
+        <v>1.423125969538802</v>
       </c>
       <c r="C14">
-        <v>0.1027252443868321</v>
+        <v>0.1459031104820241</v>
       </c>
       <c r="D14">
-        <v>0.1255702838200392</v>
+        <v>0.1093323173595593</v>
       </c>
       <c r="E14">
-        <v>0.07049882376778882</v>
+        <v>0.03764812064732936</v>
       </c>
       <c r="F14">
-        <v>1.039015003830841</v>
+        <v>0.5168109236051848</v>
       </c>
       <c r="G14">
-        <v>0.0008129170368767099</v>
+        <v>0.2976418264325815</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1628854736302827</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06737743723438427</v>
+        <v>0.2798812371679773</v>
       </c>
       <c r="K14">
-        <v>1.525299842535247</v>
+        <v>0.271353111971095</v>
       </c>
       <c r="L14">
-        <v>0.2850545574306693</v>
+        <v>0.0621643220194219</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.315806319888992</v>
       </c>
       <c r="N14">
-        <v>0.8821850069315085</v>
+        <v>0.1125616692929725</v>
       </c>
       <c r="O14">
-        <v>2.574442017558994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8258367495549948</v>
+      </c>
+      <c r="Q14">
+        <v>1.1649741817766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.862939978810289</v>
+        <v>1.399374301613364</v>
       </c>
       <c r="C15">
-        <v>0.102327018276533</v>
+        <v>0.1464028826452477</v>
       </c>
       <c r="D15">
-        <v>0.124377193318054</v>
+        <v>0.1059712561364137</v>
       </c>
       <c r="E15">
-        <v>0.07013338205121755</v>
+        <v>0.03658063600210237</v>
       </c>
       <c r="F15">
-        <v>1.035194144126592</v>
+        <v>0.5088835589576561</v>
       </c>
       <c r="G15">
-        <v>0.0008133540259185577</v>
+        <v>0.293008266640193</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1754366952053346</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06736240401429328</v>
+        <v>0.2780069061690043</v>
       </c>
       <c r="K15">
-        <v>1.508427301321262</v>
+        <v>0.2691306037566932</v>
       </c>
       <c r="L15">
-        <v>0.282357984621612</v>
+        <v>0.06349618046153438</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.298742514207845</v>
       </c>
       <c r="N15">
-        <v>0.8874663215055021</v>
+        <v>0.1052640806646394</v>
       </c>
       <c r="O15">
-        <v>2.567802131807525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8314771797174529</v>
+      </c>
+      <c r="Q15">
+        <v>1.151193336598539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.747175179728657</v>
+        <v>1.313591183866208</v>
       </c>
       <c r="C16">
-        <v>0.1000481195490366</v>
+        <v>0.1409203372492271</v>
       </c>
       <c r="D16">
-        <v>0.1175651952859056</v>
+        <v>0.1015474918644159</v>
       </c>
       <c r="E16">
-        <v>0.06806306091564807</v>
+        <v>0.0366429473915586</v>
       </c>
       <c r="F16">
-        <v>1.013868494158885</v>
+        <v>0.5067882039860407</v>
       </c>
       <c r="G16">
-        <v>0.000815878349126598</v>
+        <v>0.2927690538824024</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1629511378881148</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06730474860433233</v>
+        <v>0.2809109181258833</v>
       </c>
       <c r="K16">
-        <v>1.411954801773248</v>
+        <v>0.2740802406983676</v>
       </c>
       <c r="L16">
-        <v>0.2669769971821694</v>
+        <v>0.06225760958464654</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.218559752442843</v>
       </c>
       <c r="N16">
-        <v>0.9181636010317709</v>
+        <v>0.1021610239656709</v>
       </c>
       <c r="O16">
-        <v>2.531314753834238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8429057757054323</v>
+      </c>
+      <c r="Q16">
+        <v>1.156590629030731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.676448788674264</v>
+        <v>1.279656632652916</v>
       </c>
       <c r="C17">
-        <v>0.09865267429095326</v>
+        <v>0.1345116664665511</v>
       </c>
       <c r="D17">
-        <v>0.1134078022206495</v>
+        <v>0.1044085885589183</v>
       </c>
       <c r="E17">
-        <v>0.0668137380687881</v>
+        <v>0.03919600937984491</v>
       </c>
       <c r="F17">
-        <v>1.001279979526217</v>
+        <v>0.5219443275516724</v>
       </c>
       <c r="G17">
-        <v>0.0008174452138154696</v>
+        <v>0.302642610891823</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1253359410927146</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06729429232514406</v>
+        <v>0.287899673876673</v>
       </c>
       <c r="K17">
-        <v>1.352952979614258</v>
+        <v>0.2839127948032925</v>
       </c>
       <c r="L17">
-        <v>0.2576028514260287</v>
+        <v>0.0586514532188076</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.175893733731527</v>
       </c>
       <c r="N17">
-        <v>0.9373741953284389</v>
+        <v>0.1151680111703115</v>
       </c>
       <c r="O17">
-        <v>2.51028589142291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.842713890899411</v>
+      </c>
+      <c r="Q17">
+        <v>1.192053322257607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.635869545781674</v>
+        <v>1.286072978064027</v>
       </c>
       <c r="C18">
-        <v>0.09785090643597982</v>
+        <v>0.1268933169061768</v>
       </c>
       <c r="D18">
-        <v>0.111024161684</v>
+        <v>0.1141574097583629</v>
       </c>
       <c r="E18">
-        <v>0.06610257220850002</v>
+        <v>0.04560995203526375</v>
       </c>
       <c r="F18">
-        <v>0.9942152926902992</v>
+        <v>0.554147710497638</v>
       </c>
       <c r="G18">
-        <v>0.0008183532746604457</v>
+        <v>0.3226039417295965</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07254961430727747</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06729723542336785</v>
+        <v>0.2992590528550068</v>
       </c>
       <c r="K18">
-        <v>1.319078205553808</v>
+        <v>0.2994301152223606</v>
       </c>
       <c r="L18">
-        <v>0.2522327052286215</v>
+        <v>0.05566081883103191</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.160378756589182</v>
       </c>
       <c r="N18">
-        <v>0.9485601788195375</v>
+        <v>0.1470150063911291</v>
       </c>
       <c r="O18">
-        <v>2.498673177826333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8338563653905879</v>
+      </c>
+      <c r="Q18">
+        <v>1.258108571438285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.622146811945129</v>
+        <v>1.324351704237358</v>
       </c>
       <c r="C19">
-        <v>0.0975795798243837</v>
+        <v>0.1192714441928473</v>
       </c>
       <c r="D19">
-        <v>0.1102183729846757</v>
+        <v>0.1292789558988972</v>
       </c>
       <c r="E19">
-        <v>0.06586303670301419</v>
+        <v>0.05682723398438583</v>
       </c>
       <c r="F19">
-        <v>0.9918529949268304</v>
+        <v>0.5988461066654551</v>
       </c>
       <c r="G19">
-        <v>0.0008186619151920941</v>
+        <v>0.349908690898701</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02715762235256136</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06729975193967519</v>
+        <v>0.3135475060284563</v>
       </c>
       <c r="K19">
-        <v>1.307618893906636</v>
+        <v>0.31911321004171</v>
       </c>
       <c r="L19">
-        <v>0.2504180838520824</v>
+        <v>0.05789475511281861</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.167655213050239</v>
       </c>
       <c r="N19">
-        <v>0.9523707687263201</v>
+        <v>0.1971730787624395</v>
       </c>
       <c r="O19">
-        <v>2.494822760500995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8205965609721133</v>
+      </c>
+      <c r="Q19">
+        <v>1.345915102644014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.683967168398965</v>
+        <v>1.45142323694148</v>
       </c>
       <c r="C20">
-        <v>0.09880113120959777</v>
+        <v>0.1116378484339364</v>
       </c>
       <c r="D20">
-        <v>0.1138495716433283</v>
+        <v>0.15905688001817</v>
       </c>
       <c r="E20">
-        <v>0.06694595878456155</v>
+        <v>0.08080483655113113</v>
       </c>
       <c r="F20">
-        <v>1.002601718214834</v>
+        <v>0.6771137780527994</v>
       </c>
       <c r="G20">
-        <v>0.0008172777131702263</v>
+        <v>0.3968648498942215</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0004298220941869602</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06729447397306387</v>
+        <v>0.3355282136222897</v>
       </c>
       <c r="K20">
-        <v>1.359227347751869</v>
+        <v>0.3496604910751167</v>
       </c>
       <c r="L20">
-        <v>0.2585984856280135</v>
+        <v>0.07370696680675337</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.238838533683179</v>
       </c>
       <c r="N20">
-        <v>0.9353150027699666</v>
+        <v>0.2965819305265001</v>
       </c>
       <c r="O20">
-        <v>2.512474168081923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.793923744080157</v>
+      </c>
+      <c r="Q20">
+        <v>1.491625527623739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.892923708422757</v>
+        <v>1.638477303262221</v>
       </c>
       <c r="C21">
-        <v>0.1029162643522454</v>
+        <v>0.1169394462299636</v>
       </c>
       <c r="D21">
-        <v>0.1261428599954684</v>
+        <v>0.1773672621579863</v>
       </c>
       <c r="E21">
-        <v>0.07067449333545994</v>
+        <v>0.0884585215615239</v>
       </c>
       <c r="F21">
-        <v>1.04085750635366</v>
+        <v>0.709422838659215</v>
       </c>
       <c r="G21">
-        <v>0.000812707839967057</v>
+        <v>0.4145205321149632</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.184474284021135E-06</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06738515746284435</v>
+        <v>0.3388686066745663</v>
       </c>
       <c r="K21">
-        <v>1.533394712442544</v>
+        <v>0.3525224327387377</v>
       </c>
       <c r="L21">
-        <v>0.2863489485904864</v>
+        <v>0.07848066609917481</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.394969921566002</v>
       </c>
       <c r="N21">
-        <v>0.8796602168403691</v>
+        <v>0.3366127525136875</v>
       </c>
       <c r="O21">
-        <v>2.577654246354768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7615628888258072</v>
+      </c>
+      <c r="Q21">
+        <v>1.536372140500362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.030525910443771</v>
+        <v>1.757306627438027</v>
       </c>
       <c r="C22">
-        <v>0.1056154359271986</v>
+        <v>0.1208273932545794</v>
       </c>
       <c r="D22">
-        <v>0.1342520628003143</v>
+        <v>0.1881144045673437</v>
       </c>
       <c r="E22">
-        <v>0.07318196907802133</v>
+        <v>0.0922170815834491</v>
       </c>
       <c r="F22">
-        <v>1.067549662047512</v>
+        <v>0.7277451188697839</v>
       </c>
       <c r="G22">
-        <v>0.0008097793578033144</v>
+        <v>0.424510034638331</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.428147476853717E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06752849690144558</v>
+        <v>0.3403326559233477</v>
       </c>
       <c r="K22">
-        <v>1.647879366272662</v>
+        <v>0.3532891015728552</v>
       </c>
       <c r="L22">
-        <v>0.3047001492523833</v>
+        <v>0.0805232039648125</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.495840884836582</v>
       </c>
       <c r="N22">
-        <v>0.8445602835754826</v>
+        <v>0.3580074974219656</v>
       </c>
       <c r="O22">
-        <v>2.624885264415099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.7418298139845447</v>
+      </c>
+      <c r="Q22">
+        <v>1.56081781353214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.956983063578321</v>
+        <v>1.69386854156383</v>
       </c>
       <c r="C23">
-        <v>0.1041738442104716</v>
+        <v>0.118752715045467</v>
       </c>
       <c r="D23">
-        <v>0.1299168142219145</v>
+        <v>0.1823745173681601</v>
       </c>
       <c r="E23">
-        <v>0.07183698212273626</v>
+        <v>0.09021012510826409</v>
       </c>
       <c r="F23">
-        <v>1.053142725557024</v>
+        <v>0.7178956931607416</v>
       </c>
       <c r="G23">
-        <v>0.0008113371558472596</v>
+        <v>0.4191211848939531</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.219917654284643E-06</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06744408465218754</v>
+        <v>0.339517712088437</v>
       </c>
       <c r="K23">
-        <v>1.58671123286021</v>
+        <v>0.3528378649366282</v>
       </c>
       <c r="L23">
-        <v>0.2948850077744822</v>
+        <v>0.07943378380024058</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.441996189181765</v>
       </c>
       <c r="N23">
-        <v>0.8631743355981065</v>
+        <v>0.3465852295007181</v>
       </c>
       <c r="O23">
-        <v>2.599236466538713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7522940487917325</v>
+      </c>
+      <c r="Q23">
+        <v>1.547579594404169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.680567854092317</v>
+        <v>1.453934945376147</v>
       </c>
       <c r="C24">
-        <v>0.09873401232620438</v>
+        <v>0.11088470564777</v>
       </c>
       <c r="D24">
-        <v>0.1136498275203479</v>
+        <v>0.1607182214447249</v>
       </c>
       <c r="E24">
-        <v>0.06688615977672185</v>
+        <v>0.08262785316004084</v>
       </c>
       <c r="F24">
-        <v>1.002003623825701</v>
+        <v>0.6821014113995005</v>
       </c>
       <c r="G24">
-        <v>0.0008173534176176894</v>
+        <v>0.3999347817103569</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0002900910440157833</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06729436400540578</v>
+        <v>0.3371531556759493</v>
       </c>
       <c r="K24">
-        <v>1.356390563312999</v>
+        <v>0.3520322804690714</v>
       </c>
       <c r="L24">
-        <v>0.2581482999195828</v>
+        <v>0.07529012934469037</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.238211432388312</v>
       </c>
       <c r="N24">
-        <v>0.9362455234327873</v>
+        <v>0.3033941372164008</v>
       </c>
       <c r="O24">
-        <v>2.511483365902365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7933868755638933</v>
+      </c>
+      <c r="Q24">
+        <v>1.501534106666611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.386187836066</v>
+        <v>1.195602446932241</v>
       </c>
       <c r="C25">
-        <v>0.09289796115655236</v>
+        <v>0.1023641820867596</v>
       </c>
       <c r="D25">
-        <v>0.09638932923526511</v>
+        <v>0.1375115690870103</v>
       </c>
       <c r="E25">
-        <v>0.06182684591894727</v>
+        <v>0.07447735728641192</v>
       </c>
       <c r="F25">
-        <v>0.9535035530876499</v>
+        <v>0.6464732406007556</v>
       </c>
       <c r="G25">
-        <v>0.000824105935428825</v>
+        <v>0.3816377934023336</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001464667332971792</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06747311462556738</v>
+        <v>0.3360518978975335</v>
       </c>
       <c r="K25">
-        <v>1.110248974674107</v>
+        <v>0.3529682915477643</v>
       </c>
       <c r="L25">
-        <v>0.219336794281503</v>
+        <v>0.07077170052961534</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.018513425765775</v>
       </c>
       <c r="N25">
-        <v>1.020256364616579</v>
+        <v>0.2569057237722063</v>
       </c>
       <c r="O25">
-        <v>2.435105015866952</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8406768650302254</v>
+      </c>
+      <c r="Q25">
+        <v>1.459959909053651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.00554791402007</v>
+        <v>0.9726049729009105</v>
       </c>
       <c r="C2">
-        <v>0.09605012554472836</v>
+        <v>0.09128968674299642</v>
       </c>
       <c r="D2">
-        <v>0.120530407818336</v>
+        <v>0.1219148436607895</v>
       </c>
       <c r="E2">
-        <v>0.06848786306645138</v>
+        <v>0.06659584282570385</v>
       </c>
       <c r="F2">
-        <v>0.6225692806167729</v>
+        <v>0.5936698062661918</v>
       </c>
       <c r="G2">
-        <v>0.3700226683308045</v>
+        <v>0.3316802622410009</v>
       </c>
       <c r="H2">
-        <v>0.002997180605572525</v>
+        <v>0.002410450958072796</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3363991324000182</v>
+        <v>0.3476870516014472</v>
       </c>
       <c r="K2">
-        <v>0.3550909971424225</v>
+        <v>0.3260210387801479</v>
       </c>
       <c r="L2">
-        <v>0.06739150513007175</v>
+        <v>0.160380539752655</v>
       </c>
       <c r="M2">
-        <v>0.8566386985437191</v>
+        <v>0.09016238000291565</v>
       </c>
       <c r="N2">
-        <v>0.222710430307302</v>
+        <v>0.0639249207209982</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8591129229805574</v>
       </c>
       <c r="P2">
-        <v>0.8779049525024369</v>
+        <v>0.2357418501064927</v>
       </c>
       <c r="Q2">
-        <v>1.43568722955807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8583781943690028</v>
+      </c>
+      <c r="S2">
+        <v>1.355614205814462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8767278863459467</v>
+        <v>0.8509003243219979</v>
       </c>
       <c r="C3">
-        <v>0.09174069245081995</v>
+        <v>0.0844677448556439</v>
       </c>
       <c r="D3">
-        <v>0.1090761916029308</v>
+        <v>0.1103672244832339</v>
       </c>
       <c r="E3">
-        <v>0.06443016752126951</v>
+        <v>0.06284079683832644</v>
       </c>
       <c r="F3">
-        <v>0.6077115485660869</v>
+        <v>0.5809715007155987</v>
       </c>
       <c r="G3">
-        <v>0.3632125183518937</v>
+        <v>0.3276407916762594</v>
       </c>
       <c r="H3">
-        <v>0.004415848544242762</v>
+        <v>0.00360269556872439</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3373153986284905</v>
+        <v>0.3467272069876657</v>
       </c>
       <c r="K3">
-        <v>0.3573677688787953</v>
+        <v>0.3292080635656376</v>
       </c>
       <c r="L3">
-        <v>0.0650621398790534</v>
+        <v>0.1651100786391417</v>
       </c>
       <c r="M3">
-        <v>0.7467690533886184</v>
+        <v>0.08926335334433233</v>
       </c>
       <c r="N3">
-        <v>0.1995330825038195</v>
+        <v>0.06192324238307911</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.749290522159697</v>
       </c>
       <c r="P3">
-        <v>0.9045707350263896</v>
+        <v>0.2113371695640112</v>
       </c>
       <c r="Q3">
-        <v>1.422898952358096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8811843441271385</v>
+      </c>
+      <c r="S3">
+        <v>1.347399559281001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.797589237059384</v>
+        <v>0.7759497273177089</v>
       </c>
       <c r="C4">
-        <v>0.08907822807348964</v>
+        <v>0.08029759655889279</v>
       </c>
       <c r="D4">
-        <v>0.1020663667713251</v>
+        <v>0.1033048762356401</v>
       </c>
       <c r="E4">
-        <v>0.06193765381459926</v>
+        <v>0.06053057280492169</v>
       </c>
       <c r="F4">
-        <v>0.5992163852225403</v>
+        <v>0.5736948365703682</v>
       </c>
       <c r="G4">
-        <v>0.3595243754905866</v>
+        <v>0.3256481855359752</v>
       </c>
       <c r="H4">
-        <v>0.005462786747278459</v>
+        <v>0.004487273362167865</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.338200884722518</v>
+        <v>0.3463014983344195</v>
       </c>
       <c r="K4">
-        <v>0.3591615240691475</v>
+        <v>0.3314706569243562</v>
       </c>
       <c r="L4">
-        <v>0.06361120765610906</v>
+        <v>0.168177912569238</v>
       </c>
       <c r="M4">
-        <v>0.6791990040122329</v>
+        <v>0.08928386112355646</v>
       </c>
       <c r="N4">
-        <v>0.1852934734081373</v>
+        <v>0.06067002646194375</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6817208948391169</v>
       </c>
       <c r="P4">
-        <v>0.9216308334261356</v>
+        <v>0.1963763437597876</v>
       </c>
       <c r="Q4">
-        <v>1.416761510257217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8958678751946145</v>
+      </c>
+      <c r="S4">
+        <v>1.343762730741233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7653247581349092</v>
+        <v>0.7453476377916104</v>
       </c>
       <c r="C5">
-        <v>0.08798892660165336</v>
+        <v>0.07860261957542036</v>
       </c>
       <c r="D5">
-        <v>0.09921516697933441</v>
+        <v>0.1004335364953732</v>
       </c>
       <c r="E5">
-        <v>0.06092142850258853</v>
+        <v>0.05958778134584009</v>
       </c>
       <c r="F5">
-        <v>0.5959074974262819</v>
+        <v>0.5708561422872549</v>
       </c>
       <c r="G5">
-        <v>0.3581411921576318</v>
+        <v>0.3249542409895056</v>
       </c>
       <c r="H5">
-        <v>0.005931969277031546</v>
+        <v>0.004884655175592001</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.338641078365626</v>
+        <v>0.3461683086827136</v>
       </c>
       <c r="K5">
-        <v>0.3599895031841385</v>
+        <v>0.3324675498286815</v>
       </c>
       <c r="L5">
-        <v>0.06301450644971851</v>
+        <v>0.169469277561042</v>
       </c>
       <c r="M5">
-        <v>0.6516326829148795</v>
+        <v>0.08943496879381918</v>
       </c>
       <c r="N5">
-        <v>0.1794876322058272</v>
+        <v>0.0601530500736569</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6541483283810976</v>
       </c>
       <c r="P5">
-        <v>0.9287526667425752</v>
+        <v>0.1902848432252142</v>
       </c>
       <c r="Q5">
-        <v>1.414678654659767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.902019899120031</v>
+      </c>
+      <c r="S5">
+        <v>1.342623446463307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.75996625442869</v>
+        <v>0.7402625322444294</v>
       </c>
       <c r="C6">
-        <v>0.08780778243188081</v>
+        <v>0.07832142767154693</v>
       </c>
       <c r="D6">
-        <v>0.09874203845323848</v>
+        <v>0.09995714150398527</v>
       </c>
       <c r="E6">
-        <v>0.06075264779999046</v>
+        <v>0.05943114400851535</v>
       </c>
       <c r="F6">
-        <v>0.5953671593179521</v>
+        <v>0.5703923060942131</v>
       </c>
       <c r="G6">
-        <v>0.3579186267778454</v>
+        <v>0.3248460118683099</v>
       </c>
       <c r="H6">
-        <v>0.006012398190668927</v>
+        <v>0.004952827715549502</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3387189121542136</v>
+        <v>0.3461486015673358</v>
       </c>
       <c r="K6">
-        <v>0.3601327755542947</v>
+        <v>0.332637547231581</v>
       </c>
       <c r="L6">
-        <v>0.06291508981280813</v>
+        <v>0.169686195795741</v>
       </c>
       <c r="M6">
-        <v>0.6470533499692408</v>
+        <v>0.0894686476371529</v>
       </c>
       <c r="N6">
-        <v>0.1785233644280453</v>
+        <v>0.06006682142753661</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6495675928210005</v>
       </c>
       <c r="P6">
-        <v>0.9299454031603069</v>
+        <v>0.1892736427270876</v>
       </c>
       <c r="Q6">
-        <v>1.414357686608554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9030515287336875</v>
+      </c>
+      <c r="S6">
+        <v>1.342454654620852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.79715417235019</v>
+        <v>0.7751573864416343</v>
       </c>
       <c r="C7">
-        <v>0.08906355512643671</v>
+        <v>0.08015053681660333</v>
       </c>
       <c r="D7">
-        <v>0.1020278933682448</v>
+        <v>0.1034027648987674</v>
       </c>
       <c r="E7">
-        <v>0.06192395099767189</v>
+        <v>0.06054270027596687</v>
       </c>
       <c r="F7">
-        <v>0.5991711473429788</v>
+        <v>0.5730389690962099</v>
       </c>
       <c r="G7">
-        <v>0.359505242021072</v>
+        <v>0.3279449193167707</v>
       </c>
       <c r="H7">
-        <v>0.005468944220447691</v>
+        <v>0.0044968074643707</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3382065024249314</v>
+        <v>0.3429789574644175</v>
       </c>
       <c r="K7">
-        <v>0.3591723009636709</v>
+        <v>0.3311962299336919</v>
       </c>
       <c r="L7">
-        <v>0.06360318263977049</v>
+        <v>0.1680471566421922</v>
       </c>
       <c r="M7">
-        <v>0.678827364741565</v>
+        <v>0.08921556948210529</v>
       </c>
       <c r="N7">
-        <v>0.1852151874746042</v>
+        <v>0.06065319776456057</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6807118017422056</v>
       </c>
       <c r="P7">
-        <v>0.9217261978348539</v>
+        <v>0.1962476675565981</v>
       </c>
       <c r="Q7">
-        <v>1.416731743623757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8960598937063722</v>
+      </c>
+      <c r="S7">
+        <v>1.34198835278724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9611370246359172</v>
+        <v>0.9294117603372172</v>
       </c>
       <c r="C8">
-        <v>0.09456752982079308</v>
+        <v>0.08851026952553553</v>
       </c>
       <c r="D8">
-        <v>0.1165759163885838</v>
+        <v>0.1183857938288639</v>
       </c>
       <c r="E8">
-        <v>0.06708884602408283</v>
+        <v>0.06538614890353855</v>
       </c>
       <c r="F8">
-        <v>0.6173131151601297</v>
+        <v>0.5871403471868959</v>
       </c>
       <c r="G8">
-        <v>0.3675695125092773</v>
+        <v>0.3379040167379941</v>
       </c>
       <c r="H8">
-        <v>0.003448812500681186</v>
+        <v>0.002799481263389025</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3366469130751639</v>
+        <v>0.3365584764923923</v>
       </c>
       <c r="K8">
-        <v>0.3557923347622278</v>
+        <v>0.326115407383238</v>
       </c>
       <c r="L8">
-        <v>0.06659249283913304</v>
+        <v>0.161539116945427</v>
       </c>
       <c r="M8">
-        <v>0.8187762528957023</v>
+        <v>0.08945913260166982</v>
       </c>
       <c r="N8">
-        <v>0.2147200994000258</v>
+        <v>0.06320888029811478</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8191339903564483</v>
       </c>
       <c r="P8">
-        <v>0.8869547908126592</v>
+        <v>0.2271667521019793</v>
       </c>
       <c r="Q8">
-        <v>1.430914018037939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8665367392369809</v>
+      </c>
+      <c r="S8">
+        <v>1.346686284573408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.282582078083237</v>
+        <v>1.231665230873205</v>
       </c>
       <c r="C9">
-        <v>0.1052398899289457</v>
+        <v>0.1055133012653329</v>
       </c>
       <c r="D9">
-        <v>0.1453106763451331</v>
+        <v>0.1475118537292275</v>
       </c>
       <c r="E9">
-        <v>0.07722024195215837</v>
+        <v>0.07476660331467144</v>
       </c>
       <c r="F9">
-        <v>0.6580976372363025</v>
+        <v>0.6213610915080565</v>
       </c>
       <c r="G9">
-        <v>0.3874993791203067</v>
+        <v>0.353010783110328</v>
       </c>
       <c r="H9">
-        <v>0.0009603112329445995</v>
+        <v>0.0007316139911395236</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3362372420581252</v>
+        <v>0.3370209542690645</v>
       </c>
       <c r="K9">
-        <v>0.3524226020962509</v>
+        <v>0.319717910533651</v>
       </c>
       <c r="L9">
-        <v>0.07230128745731434</v>
+        <v>0.1506206203961469</v>
       </c>
       <c r="M9">
-        <v>1.092523014045383</v>
+        <v>0.09478772410908576</v>
       </c>
       <c r="N9">
-        <v>0.2725568124382676</v>
+        <v>0.06807395883762979</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.091936358360641</v>
       </c>
       <c r="P9">
-        <v>0.824363819829955</v>
+        <v>0.2881976234540531</v>
       </c>
       <c r="Q9">
-        <v>1.472939382982801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8137735865479101</v>
+      </c>
+      <c r="S9">
+        <v>1.373968347199806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.511956548628831</v>
+        <v>1.444480344645058</v>
       </c>
       <c r="C10">
-        <v>0.1138686506250295</v>
+        <v>0.1181606661125585</v>
       </c>
       <c r="D10">
-        <v>0.1641036679549188</v>
+        <v>0.1673980373731467</v>
       </c>
       <c r="E10">
-        <v>0.08222408132740711</v>
+        <v>0.07942980712251924</v>
       </c>
       <c r="F10">
-        <v>0.684616151273616</v>
+        <v>0.6395249935660132</v>
       </c>
       <c r="G10">
-        <v>0.4007128754942713</v>
+        <v>0.3770184340290399</v>
       </c>
       <c r="H10">
-        <v>0.0003547538943635686</v>
+        <v>0.0002960303867407532</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3355636186585755</v>
+        <v>0.3189333612682361</v>
       </c>
       <c r="K10">
-        <v>0.3490601640031237</v>
+        <v>0.3125510521259542</v>
       </c>
       <c r="L10">
-        <v>0.07432894268753998</v>
+        <v>0.1419095800741328</v>
       </c>
       <c r="M10">
-        <v>1.291063984486527</v>
+        <v>0.09993639500633478</v>
       </c>
       <c r="N10">
-        <v>0.3056702275794265</v>
+        <v>0.06961865023002112</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.285712014101534</v>
       </c>
       <c r="P10">
-        <v>0.7833881155708156</v>
+        <v>0.3231420361677948</v>
       </c>
       <c r="Q10">
-        <v>1.499967236410015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7813506166452591</v>
+      </c>
+      <c r="S10">
+        <v>1.380003576404036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.554485365953639</v>
+        <v>1.482666766420095</v>
       </c>
       <c r="C11">
-        <v>0.1257067482176026</v>
+        <v>0.1300459669326131</v>
       </c>
       <c r="D11">
-        <v>0.1515328832258405</v>
+        <v>0.1562940307445047</v>
       </c>
       <c r="E11">
-        <v>0.06527636241810519</v>
+        <v>0.06316113116366218</v>
       </c>
       <c r="F11">
-        <v>0.6379570661619525</v>
+        <v>0.5886789568950448</v>
       </c>
       <c r="G11">
-        <v>0.3711973891075786</v>
+        <v>0.3791389006392194</v>
       </c>
       <c r="H11">
-        <v>0.01891337586766184</v>
+        <v>0.01886881229318504</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3175099480124643</v>
+        <v>0.2729674960368271</v>
       </c>
       <c r="K11">
-        <v>0.3222941975836591</v>
+        <v>0.2858875540019241</v>
       </c>
       <c r="L11">
-        <v>0.06180042420613141</v>
+        <v>0.1300639935458285</v>
       </c>
       <c r="M11">
-        <v>1.359915328695365</v>
+        <v>0.09288211211132591</v>
       </c>
       <c r="N11">
-        <v>0.2438178831045263</v>
+        <v>0.05851301224644789</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.345657713172301</v>
       </c>
       <c r="P11">
-        <v>0.7804736160923795</v>
+        <v>0.2584603801409884</v>
       </c>
       <c r="Q11">
-        <v>1.399748266584169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7877866992436395</v>
+      </c>
+      <c r="S11">
+        <v>1.267761348887959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.540804860547183</v>
+        <v>1.470445601508118</v>
       </c>
       <c r="C12">
-        <v>0.1346425578286556</v>
+        <v>0.1383832460696794</v>
       </c>
       <c r="D12">
-        <v>0.1373935328131211</v>
+        <v>0.1425601220076658</v>
       </c>
       <c r="E12">
-        <v>0.05274678186303383</v>
+        <v>0.05108234301646952</v>
       </c>
       <c r="F12">
-        <v>0.5936304217233257</v>
+        <v>0.545139235383111</v>
       </c>
       <c r="G12">
-        <v>0.3438765450298007</v>
+        <v>0.3662317897366449</v>
       </c>
       <c r="H12">
-        <v>0.05762354181423746</v>
+        <v>0.05757691574142143</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3024618384352991</v>
+        <v>0.251429312420882</v>
       </c>
       <c r="K12">
-        <v>0.3010502601971474</v>
+        <v>0.2667048672226286</v>
       </c>
       <c r="L12">
-        <v>0.05714561862044654</v>
+        <v>0.1228111161274672</v>
       </c>
       <c r="M12">
-        <v>1.375587936681342</v>
+        <v>0.08614847016990979</v>
       </c>
       <c r="N12">
-        <v>0.1912750264083627</v>
+        <v>0.05508405689159979</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.357198001243546</v>
       </c>
       <c r="P12">
-        <v>0.7898907255662451</v>
+        <v>0.2034923840679568</v>
       </c>
       <c r="Q12">
-        <v>1.310367021703073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8028871348796827</v>
+      </c>
+      <c r="S12">
+        <v>1.179908590938922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.483153123194256</v>
+        <v>1.41977759940039</v>
       </c>
       <c r="C13">
-        <v>0.1417418818009679</v>
+        <v>0.1448402632299377</v>
       </c>
       <c r="D13">
-        <v>0.1213062455077534</v>
+        <v>0.1258505672872445</v>
       </c>
       <c r="E13">
-        <v>0.04290348354940132</v>
+        <v>0.04155362963843601</v>
       </c>
       <c r="F13">
-        <v>0.548447930086077</v>
+        <v>0.5054775918461445</v>
       </c>
       <c r="G13">
-        <v>0.3165473727347674</v>
+        <v>0.3353005186448499</v>
       </c>
       <c r="H13">
-        <v>0.1134556688474362</v>
+        <v>0.1133901085821094</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2887659602933326</v>
+        <v>0.2463327179404544</v>
       </c>
       <c r="K13">
-        <v>0.2827015737502592</v>
+        <v>0.2522662403295648</v>
       </c>
       <c r="L13">
-        <v>0.05814061740655596</v>
+        <v>0.1182198226263491</v>
       </c>
       <c r="M13">
-        <v>1.351087062623009</v>
+        <v>0.07964496051712722</v>
       </c>
       <c r="N13">
-        <v>0.1431073512103467</v>
+        <v>0.05716809165653558</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.333812556340121</v>
       </c>
       <c r="P13">
-        <v>0.8085170221155309</v>
+        <v>0.153147235711323</v>
       </c>
       <c r="Q13">
-        <v>1.223718255805153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.822980491144591</v>
+      </c>
+      <c r="S13">
+        <v>1.107722326985197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.423125969538802</v>
+        <v>1.36698586553743</v>
       </c>
       <c r="C14">
-        <v>0.1459031104820241</v>
+        <v>0.1485493894079752</v>
       </c>
       <c r="D14">
-        <v>0.1093323173595593</v>
+        <v>0.1130655664992446</v>
       </c>
       <c r="E14">
-        <v>0.03764812064732936</v>
+        <v>0.03648760989472066</v>
       </c>
       <c r="F14">
-        <v>0.5168109236051848</v>
+        <v>0.4794217157981251</v>
       </c>
       <c r="G14">
-        <v>0.2976418264325815</v>
+        <v>0.3070868507289433</v>
       </c>
       <c r="H14">
-        <v>0.1628854736302827</v>
+        <v>0.1627956344328254</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2798812371679773</v>
+        <v>0.2486843418447009</v>
       </c>
       <c r="K14">
-        <v>0.271353111971095</v>
+        <v>0.2442270521696486</v>
       </c>
       <c r="L14">
-        <v>0.0621643220194219</v>
+        <v>0.1160318278735719</v>
       </c>
       <c r="M14">
-        <v>1.315806319888992</v>
+        <v>0.07532487784025754</v>
       </c>
       <c r="N14">
-        <v>0.1125616692929725</v>
+        <v>0.06184196117794372</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.301579547829675</v>
       </c>
       <c r="P14">
-        <v>0.8258367495549948</v>
+        <v>0.1212021284763765</v>
       </c>
       <c r="Q14">
-        <v>1.1649741817766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8390076802951683</v>
+      </c>
+      <c r="S14">
+        <v>1.063795052954092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.399374301613364</v>
+        <v>1.346031138766079</v>
       </c>
       <c r="C15">
-        <v>0.1464028826452477</v>
+        <v>0.1489493159995732</v>
       </c>
       <c r="D15">
-        <v>0.1059712561364137</v>
+        <v>0.1093520711748397</v>
       </c>
       <c r="E15">
-        <v>0.03658063600210237</v>
+        <v>0.03546488684693028</v>
       </c>
       <c r="F15">
-        <v>0.5088835589576561</v>
+        <v>0.4735945800025547</v>
       </c>
       <c r="G15">
-        <v>0.293008266640193</v>
+        <v>0.2974875752910506</v>
       </c>
       <c r="H15">
-        <v>0.1754366952053346</v>
+        <v>0.1753338843582242</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2780069061690043</v>
+        <v>0.2518956903292136</v>
       </c>
       <c r="K15">
-        <v>0.2691306037566932</v>
+        <v>0.2430663153839348</v>
       </c>
       <c r="L15">
-        <v>0.06349618046153438</v>
+        <v>0.1159059430864211</v>
       </c>
       <c r="M15">
-        <v>1.298742514207845</v>
+        <v>0.07433030297477217</v>
       </c>
       <c r="N15">
-        <v>0.1052640806646394</v>
+        <v>0.06330622272962216</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.286222409717993</v>
       </c>
       <c r="P15">
-        <v>0.8314771797174529</v>
+        <v>0.1135834111482197</v>
       </c>
       <c r="Q15">
-        <v>1.151193336598539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8433524352320632</v>
+      </c>
+      <c r="S15">
+        <v>1.055636144575828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.313591183866208</v>
+        <v>1.26929275255344</v>
       </c>
       <c r="C16">
-        <v>0.1409203372492271</v>
+        <v>0.1433380371782249</v>
       </c>
       <c r="D16">
-        <v>0.1015474918644159</v>
+        <v>0.1036097218136618</v>
       </c>
       <c r="E16">
-        <v>0.0366429473915586</v>
+        <v>0.03552270654127998</v>
       </c>
       <c r="F16">
-        <v>0.5067882039860407</v>
+        <v>0.477971189605249</v>
       </c>
       <c r="G16">
-        <v>0.2927690538824024</v>
+        <v>0.2751553395204098</v>
       </c>
       <c r="H16">
-        <v>0.1629511378881148</v>
+        <v>0.1627692979776612</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2809109181258833</v>
+        <v>0.2769735233460295</v>
       </c>
       <c r="K16">
-        <v>0.2740802406983676</v>
+        <v>0.2503275231185054</v>
       </c>
       <c r="L16">
-        <v>0.06225760958464654</v>
+        <v>0.119843607932145</v>
       </c>
       <c r="M16">
-        <v>1.218559752442843</v>
+        <v>0.07466601694595099</v>
       </c>
       <c r="N16">
-        <v>0.1021610239656709</v>
+        <v>0.06192970711870416</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.213968706915551</v>
       </c>
       <c r="P16">
-        <v>0.8429057757054323</v>
+        <v>0.1105429511537537</v>
       </c>
       <c r="Q16">
-        <v>1.156590629030731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8468395534191373</v>
+      </c>
+      <c r="S16">
+        <v>1.078534258533168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.279656632652916</v>
+        <v>1.237874466072469</v>
       </c>
       <c r="C17">
-        <v>0.1345116664665511</v>
+        <v>0.1367616182196798</v>
       </c>
       <c r="D17">
-        <v>0.1044085885589183</v>
+        <v>0.1060005327287854</v>
       </c>
       <c r="E17">
-        <v>0.03919600937984491</v>
+        <v>0.03794998395052041</v>
       </c>
       <c r="F17">
-        <v>0.5219443275516724</v>
+        <v>0.4946988358598929</v>
       </c>
       <c r="G17">
-        <v>0.302642610891823</v>
+        <v>0.2754479653632345</v>
       </c>
       <c r="H17">
-        <v>0.1253359410927146</v>
+        <v>0.1251032263056402</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.287899673876673</v>
+        <v>0.2940352442296188</v>
       </c>
       <c r="K17">
-        <v>0.2839127948032925</v>
+        <v>0.26009677444614</v>
       </c>
       <c r="L17">
-        <v>0.0586514532188076</v>
+        <v>0.1242751374491835</v>
       </c>
       <c r="M17">
-        <v>1.175893733731527</v>
+        <v>0.07701499818392854</v>
       </c>
       <c r="N17">
-        <v>0.1151680111703115</v>
+        <v>0.05791720598048578</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.174673699670649</v>
       </c>
       <c r="P17">
-        <v>0.842713890899411</v>
+        <v>0.1242895409697482</v>
       </c>
       <c r="Q17">
-        <v>1.192053322257607</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8423857802081471</v>
+      </c>
+      <c r="S17">
+        <v>1.118310904987865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.286072978064027</v>
+        <v>1.242467557873596</v>
       </c>
       <c r="C18">
-        <v>0.1268933169061768</v>
+        <v>0.1292135946746953</v>
       </c>
       <c r="D18">
-        <v>0.1141574097583629</v>
+        <v>0.1156694382989656</v>
       </c>
       <c r="E18">
-        <v>0.04560995203526375</v>
+        <v>0.04407414859420555</v>
       </c>
       <c r="F18">
-        <v>0.554147710497638</v>
+        <v>0.5255984529479178</v>
       </c>
       <c r="G18">
-        <v>0.3226039417295965</v>
+        <v>0.2898313679036093</v>
       </c>
       <c r="H18">
-        <v>0.07254961430727747</v>
+        <v>0.07230331082757147</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2992590528550068</v>
+        <v>0.3092205903646246</v>
       </c>
       <c r="K18">
-        <v>0.2994301152223606</v>
+        <v>0.2739463756180953</v>
       </c>
       <c r="L18">
-        <v>0.05566081883103191</v>
+        <v>0.1299894234679257</v>
       </c>
       <c r="M18">
-        <v>1.160378756589182</v>
+        <v>0.08149105405204971</v>
       </c>
       <c r="N18">
-        <v>0.1470150063911291</v>
+        <v>0.05419446657949401</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.160574185251505</v>
       </c>
       <c r="P18">
-        <v>0.8338563653905879</v>
+        <v>0.1576823353968564</v>
       </c>
       <c r="Q18">
-        <v>1.258108571438285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.8309297033729663</v>
+      </c>
+      <c r="S18">
+        <v>1.181095327468682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.324351704237358</v>
+        <v>1.275911949859847</v>
       </c>
       <c r="C19">
-        <v>0.1192714441928473</v>
+        <v>0.1218916203312119</v>
       </c>
       <c r="D19">
-        <v>0.1292789558988972</v>
+        <v>0.1309377636379452</v>
       </c>
       <c r="E19">
-        <v>0.05682723398438583</v>
+        <v>0.05485034410943967</v>
       </c>
       <c r="F19">
-        <v>0.5988461066654551</v>
+        <v>0.5670750550949464</v>
       </c>
       <c r="G19">
-        <v>0.349908690898701</v>
+        <v>0.3132305794803756</v>
       </c>
       <c r="H19">
-        <v>0.02715762235256136</v>
+        <v>0.02694090388849446</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3135475060284563</v>
+        <v>0.323693623065374</v>
       </c>
       <c r="K19">
-        <v>0.31911321004171</v>
+        <v>0.2908296927977503</v>
       </c>
       <c r="L19">
-        <v>0.05789475511281861</v>
+        <v>0.1365701423332499</v>
       </c>
       <c r="M19">
-        <v>1.167655213050239</v>
+        <v>0.08762685809321269</v>
       </c>
       <c r="N19">
-        <v>0.1971730787624395</v>
+        <v>0.05537242599797931</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.16822308773925</v>
       </c>
       <c r="P19">
-        <v>0.8205965609721133</v>
+        <v>0.2100945744538549</v>
       </c>
       <c r="Q19">
-        <v>1.345915102644014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8159103615238976</v>
+      </c>
+      <c r="S19">
+        <v>1.260670936364548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.45142323694148</v>
+        <v>1.389811901898838</v>
       </c>
       <c r="C20">
-        <v>0.1116378484339364</v>
+        <v>0.1153481304681492</v>
       </c>
       <c r="D20">
-        <v>0.15905688001817</v>
+        <v>0.1615542631243869</v>
       </c>
       <c r="E20">
-        <v>0.08080483655113113</v>
+        <v>0.07801030461862268</v>
       </c>
       <c r="F20">
-        <v>0.6771137780527994</v>
+        <v>0.6364604364791973</v>
       </c>
       <c r="G20">
-        <v>0.3968648498942215</v>
+        <v>0.3617657825715312</v>
       </c>
       <c r="H20">
-        <v>0.0004298220941869602</v>
+        <v>0.0003336450486455256</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3355282136222897</v>
+        <v>0.3342011403948533</v>
       </c>
       <c r="K20">
-        <v>0.3496604910751167</v>
+        <v>0.3151769020401147</v>
       </c>
       <c r="L20">
-        <v>0.07370696680675337</v>
+        <v>0.1444293840992152</v>
       </c>
       <c r="M20">
-        <v>1.238838533683179</v>
+        <v>0.09875399382802641</v>
       </c>
       <c r="N20">
-        <v>0.2965819305265001</v>
+        <v>0.06915867929473229</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.237135666142166</v>
       </c>
       <c r="P20">
-        <v>0.793923744080157</v>
+        <v>0.3137178444061988</v>
       </c>
       <c r="Q20">
-        <v>1.491625527623739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7889771828003518</v>
+      </c>
+      <c r="S20">
+        <v>1.383504142425991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.638477303262221</v>
+        <v>1.554972366612475</v>
       </c>
       <c r="C21">
-        <v>0.1169394462299636</v>
+        <v>0.1212824231585898</v>
       </c>
       <c r="D21">
-        <v>0.1773672621579863</v>
+        <v>0.1835235492359431</v>
       </c>
       <c r="E21">
-        <v>0.0884585215615239</v>
+        <v>0.08579968942170879</v>
       </c>
       <c r="F21">
-        <v>0.709422838659215</v>
+        <v>0.6495738340327435</v>
       </c>
       <c r="G21">
-        <v>0.4145205321149632</v>
+        <v>0.4355523178422658</v>
       </c>
       <c r="H21">
-        <v>6.184474284021135E-06</v>
+        <v>1.131946903099035E-06</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3388686066745663</v>
+        <v>0.2743010067177494</v>
       </c>
       <c r="K21">
-        <v>0.3525224327387377</v>
+        <v>0.3089983214899661</v>
       </c>
       <c r="L21">
-        <v>0.07848066609917481</v>
+        <v>0.1377045241074644</v>
       </c>
       <c r="M21">
-        <v>1.394969921566002</v>
+        <v>0.1030035370198163</v>
       </c>
       <c r="N21">
-        <v>0.3366127525136875</v>
+        <v>0.07310378770235459</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.376846244949292</v>
       </c>
       <c r="P21">
-        <v>0.7615628888258072</v>
+        <v>0.3548931427342126</v>
       </c>
       <c r="Q21">
-        <v>1.536372140500362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7663705770824123</v>
+      </c>
+      <c r="S21">
+        <v>1.376430817322131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.757306627438027</v>
+        <v>1.658936797411258</v>
       </c>
       <c r="C22">
-        <v>0.1208273932545794</v>
+        <v>0.1253899892427057</v>
       </c>
       <c r="D22">
-        <v>0.1881144045673437</v>
+        <v>0.1969645950708809</v>
       </c>
       <c r="E22">
-        <v>0.0922170815834491</v>
+        <v>0.08975241442237447</v>
       </c>
       <c r="F22">
-        <v>0.7277451188697839</v>
+        <v>0.6544641218814888</v>
       </c>
       <c r="G22">
-        <v>0.424510034638331</v>
+        <v>0.4906319371960848</v>
       </c>
       <c r="H22">
-        <v>4.428147476853717E-05</v>
+        <v>5.045441692708152E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3403326559233477</v>
+        <v>0.2409956004593248</v>
       </c>
       <c r="K22">
-        <v>0.3532891015728552</v>
+        <v>0.3035789864690557</v>
       </c>
       <c r="L22">
-        <v>0.0805232039648125</v>
+        <v>0.1330013618593728</v>
       </c>
       <c r="M22">
-        <v>1.495840884836582</v>
+        <v>0.1054782569518693</v>
       </c>
       <c r="N22">
-        <v>0.3580074974219656</v>
+        <v>0.07470428561792275</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.465674300344602</v>
       </c>
       <c r="P22">
-        <v>0.7418298139845447</v>
+        <v>0.3767777402788255</v>
       </c>
       <c r="Q22">
-        <v>1.56081781353214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.753861336905608</v>
+      </c>
+      <c r="S22">
+        <v>1.364611298745331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.69386854156383</v>
+        <v>1.604528521827859</v>
       </c>
       <c r="C23">
-        <v>0.118752715045467</v>
+        <v>0.1235447560262628</v>
       </c>
       <c r="D23">
-        <v>0.1823745173681601</v>
+        <v>0.1893846310025538</v>
       </c>
       <c r="E23">
-        <v>0.09021012510826409</v>
+        <v>0.0875638010816715</v>
       </c>
       <c r="F23">
-        <v>0.7178956931607416</v>
+        <v>0.6534397756085824</v>
       </c>
       <c r="G23">
-        <v>0.4191211848939531</v>
+        <v>0.4534600597868774</v>
       </c>
       <c r="H23">
-        <v>3.219917654284643E-06</v>
+        <v>7.915210091358205E-06</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.339517712088437</v>
+        <v>0.2630718729992978</v>
       </c>
       <c r="K23">
-        <v>0.3528378649366282</v>
+        <v>0.3071648561156586</v>
       </c>
       <c r="L23">
-        <v>0.07943378380024058</v>
+        <v>0.1357218452512257</v>
       </c>
       <c r="M23">
-        <v>1.441996189181765</v>
+        <v>0.1044319913798439</v>
       </c>
       <c r="N23">
-        <v>0.3465852295007181</v>
+        <v>0.07386812823862954</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.420059756779494</v>
       </c>
       <c r="P23">
-        <v>0.7522940487917325</v>
+        <v>0.3652193833798805</v>
       </c>
       <c r="Q23">
-        <v>1.547579594404169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7598929860736696</v>
+      </c>
+      <c r="S23">
+        <v>1.375348947852913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.453934945376147</v>
+        <v>1.391945612737999</v>
       </c>
       <c r="C24">
-        <v>0.11088470564777</v>
+        <v>0.1145777395151555</v>
       </c>
       <c r="D24">
-        <v>0.1607182214447249</v>
+        <v>0.1632129386870815</v>
       </c>
       <c r="E24">
-        <v>0.08262785316004084</v>
+        <v>0.07977424332921146</v>
       </c>
       <c r="F24">
-        <v>0.6821014113995005</v>
+        <v>0.6411738206357569</v>
       </c>
       <c r="G24">
-        <v>0.3999347817103569</v>
+        <v>0.3640864169219427</v>
       </c>
       <c r="H24">
-        <v>0.0002900910440157833</v>
+        <v>0.0001976553184923624</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3371531556759493</v>
+        <v>0.3362404931240022</v>
       </c>
       <c r="K24">
-        <v>0.3520322804690714</v>
+        <v>0.3172577278938746</v>
       </c>
       <c r="L24">
-        <v>0.07529012934469037</v>
+        <v>0.1452767794614616</v>
       </c>
       <c r="M24">
-        <v>1.238211432388312</v>
+        <v>0.09946088097153805</v>
       </c>
       <c r="N24">
-        <v>0.3033941372164008</v>
+        <v>0.07059635605524761</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.236644587477542</v>
       </c>
       <c r="P24">
-        <v>0.7933868755638933</v>
+        <v>0.3208090511857478</v>
       </c>
       <c r="Q24">
-        <v>1.501534106666611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7880835468312277</v>
+      </c>
+      <c r="S24">
+        <v>1.392730968857165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.195602446932241</v>
+        <v>1.15059920644461</v>
       </c>
       <c r="C25">
-        <v>0.1023641820867596</v>
+        <v>0.1010808727291277</v>
       </c>
       <c r="D25">
-        <v>0.1375115690870103</v>
+        <v>0.1394042067464767</v>
       </c>
       <c r="E25">
-        <v>0.07447735728641192</v>
+        <v>0.07219339459831531</v>
       </c>
       <c r="F25">
-        <v>0.6464732406007556</v>
+        <v>0.6124838677165485</v>
       </c>
       <c r="G25">
-        <v>0.3816377934023336</v>
+        <v>0.3451161543130965</v>
       </c>
       <c r="H25">
-        <v>0.001464667332971792</v>
+        <v>0.001142189936099491</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3360518978975335</v>
+        <v>0.3412558577715501</v>
       </c>
       <c r="K25">
-        <v>0.3529682915477643</v>
+        <v>0.3215617627712106</v>
       </c>
       <c r="L25">
-        <v>0.07077170052961534</v>
+        <v>0.1535979585052409</v>
       </c>
       <c r="M25">
-        <v>1.018513425765775</v>
+        <v>0.09298215551868871</v>
       </c>
       <c r="N25">
-        <v>0.2569057237722063</v>
+        <v>0.06678822202486856</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.01914530747618</v>
       </c>
       <c r="P25">
-        <v>0.8406768650302254</v>
+        <v>0.2717228816000272</v>
       </c>
       <c r="Q25">
-        <v>1.459959909053651</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8272147738625542</v>
+      </c>
+      <c r="S25">
+        <v>1.367732388313357</v>
       </c>
     </row>
   </sheetData>
